--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_112.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_112.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.21875</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(28.450816, 36.229501)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[('0:00:01.640000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:16.880000', '0:00:32.500000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09713228492136911</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[('0:00:52.750498', '0:00:59.809365')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:07.935986', '0:00:12.498707')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.36, 147.72)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:25.480000', '0:00:32.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:04.860000', '0:00:07.560000'), ('0:00:02.360000', '0:00:05.680000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(81.62, 103.56)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(78.32, 99.6)]</t>
+          <t>[('0:01:58.440000', '0:02:02.340000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(56.6, 61.46)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64)]</t>
+          <t>[['Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:02:11.140000', '0:02:13.900000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5348837209302325</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.014823, 6.126439)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(42.9, 45.16)]</t>
+          <t>[('0:00:18.826145', '0:00:26.430680')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(45.48, 48.0)]</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.88, 21.16)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.2, 29.8)]</t>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(21.58, 29.34)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07229872881355932</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'E'], ['D', 'E', 'A'], ['E', 'A', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D'], ['C', 'D', 'G'], ['D/5', 'G', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(92.74687, 96.589773), (3.605464, 10.96619), (5.463061, 12.591587)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.236303, 12.162018), (17.014988, 20.892721), (38.435396, 43.311587)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
